--- a/biology/Zoologie/Conus_sugillatus/Conus_sugillatus.xlsx
+++ b/biology/Zoologie/Conus_sugillatus/Conus_sugillatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus sugillatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans le bassin des Mascareignes[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans le bassin des Mascareignes. 
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus sugillatus a été décrite pour la première fois en 1844 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865)[2],[1].
-Synonymes
-Conus (Lividoconus) sugillatus Reeve, 1844 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus sugillatus a été décrite pour la première fois en 1844 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_sugillatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_sugillatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conus (Lividoconus) sugillatus Reeve, 1844 · appellation alternative
 Lividoconus sugillatus (Reeve, 1844) · non accepté</t>
         </is>
       </c>
